--- a/ER-BD-Projeto.xlsx
+++ b/ER-BD-Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul_pc\Desktop\UA\2ºAno\2ºSemestre\BD-TP\Projeto_SPORTSLINK-BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B3EB77-8631-4834-9F92-5AF369AB1748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E2267-E763-4F98-8827-82692F60A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{769697F0-BB79-486F-BDE7-4D44FAB2BD5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{769697F0-BB79-486F-BDE7-4D44FAB2BD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Utilizador</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Num_campos</t>
   </si>
   <si>
-    <t>Coordenadas_campos</t>
-  </si>
-  <si>
     <t>Modo_exib</t>
   </si>
   <si>
@@ -189,6 +186,18 @@
   </si>
   <si>
     <t>Data_Agenda</t>
+  </si>
+  <si>
+    <t>Ponto</t>
+  </si>
+  <si>
+    <t>ID_Ponto</t>
+  </si>
+  <si>
+    <t>ID_Pontos</t>
+  </si>
+  <si>
+    <t>Hora_Agenda</t>
   </si>
 </sst>
 </file>
@@ -252,9 +261,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,16 +397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1303020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17721</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>697023</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165396</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -412,8 +421,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="1805940"/>
-          <a:ext cx="1264920" cy="0"/>
+          <a:off x="3898605" y="3094074"/>
+          <a:ext cx="679302" cy="1182"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -446,13 +455,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1196340</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -502,13 +511,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -558,13 +567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1196340</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -614,13 +623,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -670,13 +679,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -726,13 +735,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -782,13 +791,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -838,13 +847,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -894,13 +903,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -949,15 +958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>34324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>750604</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -972,7 +981,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="4000500"/>
+          <a:off x="2471351" y="5356723"/>
           <a:ext cx="716280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1006,13 +1015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1062,14 +1071,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172995</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1084,7 +1093,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4724400" y="4541520"/>
+          <a:off x="4725292" y="5362833"/>
           <a:ext cx="716280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1118,13 +1127,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1151,6 +1160,4666 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conexão reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E685F43-2F8D-ADE6-B1E0-F136DECD0AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577340" y="922020"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conexão reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DB10B9-3992-4ADE-8643-3D880ADC84B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1005840" y="1097280"/>
+          <a:ext cx="579120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conexão reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FD1AFA-4062-4C58-A685-E92D49BA08C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1005840" y="541020"/>
+          <a:ext cx="0" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conexão reta 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDC35D-72EB-438C-81D3-FC6C4CEE6E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1005840" y="541020"/>
+          <a:ext cx="853440" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conexão reta unidirecional 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C6C93B-D5BC-2CDF-ACCA-E205142B1773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1844040" y="358140"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86596</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conexão reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CF91B5-0C9E-4A15-B7E3-00CB97091EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1297526" y="1472550"/>
+          <a:ext cx="0" cy="183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>767347</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conexão reta 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CE59E6-CD98-4106-8E11-A4039BCD8182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="767347" y="462681"/>
+          <a:ext cx="2273" cy="1178961"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conexão reta 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A829A25-1305-4FDE-BE42-7A733728B23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="457200"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conexão reta unidirecional 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB91EB69-B284-411A-92A1-BA629634B71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1447800" y="350520"/>
+          <a:ext cx="0" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conexão reta 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523299DA-FC89-4DF4-80BA-C344D4DAB647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2217420" y="3108960"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Conexão reta 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F08F1E1-FD50-465E-A71E-216B89923A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="3284220"/>
+          <a:ext cx="1158240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Conexão reta 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD390D17-42B4-410E-8452-D54465AF6E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="2727960"/>
+          <a:ext cx="7620" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Conexão reta 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB9A90A-437F-4667-9285-FF40A19009B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082040" y="2735580"/>
+          <a:ext cx="579120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Conexão reta unidirecional 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3F0E0E-5893-4BF5-A69F-2C0E74DA79E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1668780" y="2560320"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Conexão reta 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79406877-5F32-4664-8FB2-DBD6FBA6645C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="3665220"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conexão reta 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEA4D2D-9061-41F4-9284-DF09E8D4B8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2145476" y="4438341"/>
+          <a:ext cx="2854136" cy="17711"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Conexão reta 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2468AEAD-858B-46D1-BDC0-EC9D8FCADE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4998720" y="2750820"/>
+          <a:ext cx="7620" cy="1112520"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Conexão reta 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29ABD68B-0D78-4AFB-B9B2-00468FFE4CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2743200"/>
+          <a:ext cx="3139440" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conexão reta unidirecional 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12572E4-D846-4DA3-BC1E-FD01FD444D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1874520" y="2567940"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Conexão reta 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1BEF43-713A-4980-9A65-DD050D790545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2979420" y="4213860"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Conexão reta 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B4BF35-A622-4AD2-9CBE-3C7A679655A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2964180" y="4381500"/>
+          <a:ext cx="5913120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Conexão reta 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F8B234-6625-4EA5-B845-4953DD5B9065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8869680" y="2705100"/>
+          <a:ext cx="7620" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933622</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Conexão reta 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B2F604-7E8C-45A3-B8F9-809A5B2F1B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141838" y="3295135"/>
+          <a:ext cx="6735599" cy="618"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>926482</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>926482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Conexão reta unidirecional 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4DA207-6337-4F55-AC3C-C4FDFDFFC41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2134698" y="3140882"/>
+          <a:ext cx="0" cy="154871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Conexão reta 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F2B601-DA6B-40AE-AB40-8FE741FE9A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="3108960"/>
+          <a:ext cx="0" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Conexão reta 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540A4B5E-4C27-4211-B566-64E300FD8C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="937260" y="3352800"/>
+          <a:ext cx="1889760" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>951023</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Conexão reta 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3FF797-AA10-4CF9-9CE0-C69D7BDF2209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="937260" y="1730744"/>
+          <a:ext cx="13763" cy="2190898"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>956694</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844698</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>75431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Conexão reta 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6267FA-DC0A-4833-BAE2-B472954F7B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="956694" y="1713023"/>
+          <a:ext cx="1098934" cy="10455"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844698</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844698</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Conexão reta unidirecional 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D62F06-2418-4D58-99E2-EE4C1D69C072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2055628" y="1453116"/>
+          <a:ext cx="0" cy="259907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>767347</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88605</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Conexão reta 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14679916-87B4-4DE1-ACFA-D62127C28D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="767347" y="1648047"/>
+          <a:ext cx="532188" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>713564</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158307</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Conexão reta 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377241E3-FEF3-45A9-8A38-3B416E3A8E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2473843" y="2537637"/>
+          <a:ext cx="679302" cy="1182"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422112</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422112</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Conexão reta 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2499266B-049C-40C9-8683-B67D194218C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2861693" y="2570066"/>
+          <a:ext cx="0" cy="183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1116419</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>424121</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>181935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Conexão reta 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E32801-C3DA-495F-A898-AECFD4FD5ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1116419" y="2740837"/>
+          <a:ext cx="1747283" cy="4726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1107381</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1110512</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>181344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Conexão reta 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BC01A6-DDD6-4A68-9B95-769F10C03DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1107381" y="2191488"/>
+          <a:ext cx="3131" cy="553484"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1103424</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>170120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590698</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171302</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Conexão reta 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005AF6AF-70EA-4F3F-AA49-B4086FCEA29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1103424" y="2184399"/>
+          <a:ext cx="698204" cy="1182"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592058</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>595849</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Conexão reta unidirecional 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A76C75-1255-415D-9BD1-F3C712CA6383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1803583" y="2022863"/>
+          <a:ext cx="3791" cy="177410"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466651</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466651</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Conexão reta 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5E113B-B178-494F-B3EB-95C638A9D143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4347535" y="3112978"/>
+          <a:ext cx="0" cy="53162"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>465233</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>307163</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Conexão reta 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E34DD1-2DCA-4691-A77A-39221D3F78D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4346117" y="3148419"/>
+          <a:ext cx="1932999" cy="9272"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295349</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304032</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Conexão reta 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535565D5-D34D-4961-91AA-C328B50FC2E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6267302" y="2197395"/>
+          <a:ext cx="8683" cy="961066"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>815163</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300074</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Conexão reta 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8EC02A-10B4-447A-A7B0-2D9E9FBA920C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2026093" y="2190307"/>
+          <a:ext cx="4245934" cy="7088"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>818708</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819889</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Conexão reta unidirecional 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2874356B-77E5-440E-9D98-88A4682FF5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2029638" y="2013098"/>
+          <a:ext cx="1181" cy="187842"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>578589</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>578589</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>173739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Conexão reta 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5B4B5C-D42B-465A-9087-A3E5D1E43796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5281021" y="5381288"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4948</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>178130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Conexão reta 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B65010-96BA-4B45-A984-6C89C748CDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5279081" y="5546811"/>
+          <a:ext cx="3856137" cy="6508"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597244</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601974</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>173442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Conexão reta 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8885DAD4-672F-4C40-A21A-824D7E08BCC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9116541" y="3233351"/>
+          <a:ext cx="4730" cy="2315280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1132703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608639</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Conexão reta 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1171D801-72EB-43F5-BAF4-8EE02DB62C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2340919" y="3240560"/>
+          <a:ext cx="6787017" cy="6521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1126936</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1132703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Conexão reta unidirecional 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F814B517-2EFF-4AC2-8426-56AC510F68DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2335152" y="3144108"/>
+          <a:ext cx="5767" cy="104964"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>416195</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>416195</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>183324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Conexão reta 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345B6462-0259-4670-A4CE-56EC09915864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624411" y="7615089"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>782595</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423081</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Conexão reta 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A270665E-1176-42FF-8C14-DD00F743DB6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="782595" y="7771027"/>
+          <a:ext cx="848702" cy="2815"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>775730</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790489</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>178212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="Conexão reta 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5ECED9-3F76-4555-8D2A-EE643D7DC4F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="775730" y="4990757"/>
+          <a:ext cx="14759" cy="2786860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>777103</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>417589</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="Conexão reta 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCE8F0A-7444-4F72-B1A8-C44F3B55B9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777103" y="4992130"/>
+          <a:ext cx="848702" cy="2815"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>405645</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>178212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>405645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>178212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="Conexão reta unidirecional 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6564B7-2EE2-47B7-BBE5-1EEEF82D91A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1613861" y="4811996"/>
+          <a:ext cx="0" cy="185351"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>229854</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233406</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="Conexão reta 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD5BEB5-477B-4E50-9EC8-DEB6F4B1D8B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202286" y="5375797"/>
+          <a:ext cx="3552" cy="246528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>240271</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212811</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="Conexão reta 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC7A843-5F44-4850-A7F8-5A6DC236A59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6212703" y="5608595"/>
+          <a:ext cx="3130378" cy="20594"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185352</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205185</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71841</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Conexão reta 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F284DD-CA93-4C5A-B2D3-156AB6F5BDAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9315622" y="1112108"/>
+          <a:ext cx="19833" cy="4520274"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>995406</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191255</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="Conexão reta 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9BF18B-952D-4B9C-B763-6DB307B76EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2203622" y="1106960"/>
+          <a:ext cx="7117903" cy="5148"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>999662</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>999662</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14898</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="Conexão reta unidirecional 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1D4E40-CD0A-4930-A2CE-8BA1D1575730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2207878" y="941654"/>
+          <a:ext cx="0" cy="185352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354793</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358345</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Conexão reta 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDD3E10-AD4B-40C6-B32D-576ADD93C75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4233442" y="5953818"/>
+          <a:ext cx="3552" cy="246528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>345988</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13730</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="Conexão reta 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDDE0BA-EA9C-4A97-AD3C-04582258A68E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4224637" y="6194854"/>
+          <a:ext cx="5530336" cy="10984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380881</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380881</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Conexão reta 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4E29DF-2FE7-43A4-AD59-2933A34AC01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5083313" y="5945580"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>378941</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>178487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>356973</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="Conexão reta 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F781A8-FA0F-4EB9-BDCD-13EFECA99B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5081373" y="6109730"/>
+          <a:ext cx="4405870" cy="1373"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>343244</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>178486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>183052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="Conexão reta 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E0824B-ECE4-4FD1-BA32-74EB9DB35FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9473514" y="549189"/>
+          <a:ext cx="21206" cy="5565106"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1985</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="Conexão reta 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7F2EC7-35B9-4CD1-99EF-2B76282BD4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9741243" y="439351"/>
+          <a:ext cx="1985" cy="5779290"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>919892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="Conexão reta 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC334A33-91B6-44E2-9638-B5275F7E0743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2128108" y="559144"/>
+          <a:ext cx="7352682" cy="3775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1139568</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1784</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="Conexão reta 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BE31C2-8EDF-4E58-A50C-44D1427D4E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2347784" y="432486"/>
+          <a:ext cx="7395243" cy="4464"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>924148</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>924148</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="Conexão reta unidirecional 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543CFC13-8D52-49DB-B9AC-BA5FE971ED6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2132364" y="365005"/>
+          <a:ext cx="0" cy="185352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152611</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152611</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="Conexão reta unidirecional 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FE6F8D-4545-45D8-89E9-ABA7864394F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2360827" y="336790"/>
+          <a:ext cx="0" cy="109152"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411085</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411892</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="Conexão reta 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A86CD11-84FB-47E3-ABDE-3CBFF80E00A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2848112" y="6504380"/>
+          <a:ext cx="807" cy="250647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>780415</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>780415</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="Conexão reta 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105335EF-4380-43AC-871E-F9664F6A2921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217442" y="6496142"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771611</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>178487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233406</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="Conexão reta 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FECBD4-EBFF-45AD-9182-BCD8C2C9E56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3208638" y="6665784"/>
+          <a:ext cx="6766011" cy="9611"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395416</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="Conexão reta 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F0426C-EB66-4C46-940E-9886578897E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832443" y="6759146"/>
+          <a:ext cx="7519773" cy="16476"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205946</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>75513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229898</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="Conexão reta 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26861663-0168-4ACA-A789-3623D20CBF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9947189" y="1002270"/>
+          <a:ext cx="23952" cy="5670825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4730</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6865</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="Conexão reta 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469131AD-217F-4D11-A86A-AECBEC829C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10356946" y="2896973"/>
+          <a:ext cx="2135" cy="3894197"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1201352</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>78602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199493</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="Conexão reta 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E03A361-C2A5-4D82-9026-DB1311AB4B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2409568" y="1005359"/>
+          <a:ext cx="7531168" cy="10641"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200116</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1201352</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>84919</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="Conexão reta unidirecional 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D0E87D-9F2A-498F-9A68-56449EAE2779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2408332" y="913027"/>
+          <a:ext cx="1236" cy="98649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>967946</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14142</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="Conexão reta 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDECA99A-8603-409F-8BEF-9B121B765D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2176162" y="2883243"/>
+          <a:ext cx="8190196" cy="16819"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>982774</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>988541</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Conexão reta unidirecional 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBE5F9B-6F81-4F79-8B96-2D96894F4C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190990" y="2878369"/>
+          <a:ext cx="5767" cy="121577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549189</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549754</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="Conexão reta 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42C00BD-2C8B-429F-B31E-E149857E7AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2986216" y="5386780"/>
+          <a:ext cx="565" cy="180625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>989914</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569784</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="Conexão reta 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E802FF-E0C7-4F0A-87B3-97223F1071FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="989914" y="5567405"/>
+          <a:ext cx="2016897" cy="8238"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>996779</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1002270</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="Conexão reta 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3B3E44-0DE2-4107-AA86-6A9DE1D1828F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="996779" y="5568778"/>
+          <a:ext cx="5491" cy="1666790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>996779</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302054</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="Conexão reta 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9166130-900B-4C82-98EF-755C23205327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="996779" y="7228703"/>
+          <a:ext cx="1742302" cy="1372"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="Conexão reta unidirecional 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77B77EE-24AE-4649-8ADD-FAEDF1A5C419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2734207" y="7051314"/>
+          <a:ext cx="0" cy="185351"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339742</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>16201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343243</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="Conexão reta unidirecional 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11524610-B78F-466D-952A-52F7CD54225B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4218391" y="7059552"/>
+          <a:ext cx="3501" cy="272124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350108</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>124940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="Conexão reta 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48F5C8B-7B99-4B2D-AE04-1D8A1929B1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4228757" y="5388919"/>
+          <a:ext cx="1372" cy="111210"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>913027</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>124940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>372075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130433</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="Conexão reta 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6829E75-F462-4617-B243-E613896A4B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="913027" y="5500129"/>
+          <a:ext cx="3337697" cy="5493"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>906162</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>915773</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Conexão reta 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA88EF8A-752F-446B-B842-1217BCCF5A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="906162" y="5487772"/>
+          <a:ext cx="9611" cy="1837039"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895179</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350108</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="Conexão reta 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059F30E-71A8-4A2D-BCC2-B0B6F67925D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="895179" y="7311081"/>
+          <a:ext cx="3333578" cy="9610"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521730</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>184585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523668</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="Conexão reta 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923D86BD-2B90-4474-9BC0-B5335CA398D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1729946" y="7042585"/>
+          <a:ext cx="1938" cy="117469"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638432</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521730</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="Conexão reta 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E20D6C-4DAE-4A5F-9EFB-2D56C7472200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638432" y="7153189"/>
+          <a:ext cx="1091514" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>652162</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654564</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Conexão reta 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1675312-FA7A-4A48-84E0-94C9E0122D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="652162" y="4379784"/>
+          <a:ext cx="2402" cy="2767638"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>940624</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300544</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="Conexão reta 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D18E8E7-44F7-4368-B8F9-7279D7132102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="3832860"/>
+          <a:ext cx="2854136" cy="17711"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>643444</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>480541</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="Conexão reta 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A9654E-C1EA-47D2-8F4A-2FBBB96E681F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="643444" y="4371065"/>
+          <a:ext cx="1045313" cy="1854"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>489397</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>494270</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>117801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="Conexão reta unidirecional 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610376E3-B276-467B-B0F8-6E63656205FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1697613" y="4256216"/>
+          <a:ext cx="4873" cy="124666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1490,10 +6159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A204C0CF-ED1A-4116-922E-6F2DAC60886C}">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -1555,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>
@@ -1569,171 +6238,196 @@
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1744,6 +6438,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB7255EED27544BAACB01E9877A4242" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5315854b71b82a6083468dde30c62f45">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5c9103cda484c0f32ca8cdd70a32bc" ns3:_="">
     <xsd:import namespace="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
@@ -1937,24 +6648,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9B822-4068-4723-BB19-8251AC4C1464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF7AB82-CC0D-4E32-978F-5C00E977326C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43329A7-31AA-4039-A8CA-417E0F1E2C2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1970,28 +6688,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF7AB82-CC0D-4E32-978F-5C00E977326C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9B822-4068-4723-BB19-8251AC4C1464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ER-BD-Projeto.xlsx
+++ b/ER-BD-Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul_pc\Desktop\UA\2ºAno\2ºSemestre\BD-TP\Projeto_SPORTSLINK-BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E2267-E763-4F98-8827-82692F60A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7A3A8-B4D1-4234-9B4C-7E0BBA268EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{769697F0-BB79-486F-BDE7-4D44FAB2BD5F}"/>
   </bookViews>
@@ -256,14 +256,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5664,56 +5661,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="652162" y="4379784"/>
           <a:ext cx="2402" cy="2767638"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>940624</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>125833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>300544</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>143544</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name="Conexão reta 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D18E8E7-44F7-4368-B8F9-7279D7132102}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2148840" y="3832860"/>
-          <a:ext cx="2854136" cy="17711"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6161,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A204C0CF-ED1A-4116-922E-6F2DAC60886C}">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6240,18 +6187,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6263,9 +6202,6 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6325,6 +6261,7 @@
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6359,10 +6296,10 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -6433,28 +6370,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB7255EED27544BAACB01E9877A4242" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5315854b71b82a6083468dde30c62f45">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5c9103cda484c0f32ca8cdd70a32bc" ns3:_="">
     <xsd:import namespace="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
@@ -6648,31 +6569,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9B822-4068-4723-BB19-8251AC4C1464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF7AB82-CC0D-4E32-978F-5C00E977326C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43329A7-31AA-4039-A8CA-417E0F1E2C2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6688,4 +6602,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF7AB82-CC0D-4E32-978F-5C00E977326C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9B822-4068-4723-BB19-8251AC4C1464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ER-BD-Projeto.xlsx
+++ b/ER-BD-Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul_pc\Desktop\UA\2ºAno\2ºSemestre\BD-TP\Projeto_SPORTSLINK-BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7A3A8-B4D1-4234-9B4C-7E0BBA268EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F310ED-23C0-485E-923C-E5321BCF1A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{769697F0-BB79-486F-BDE7-4D44FAB2BD5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Utilizador</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Imagem</t>
-  </si>
-  <si>
-    <t>Agenda</t>
   </si>
   <si>
     <t>Rating</t>
@@ -185,9 +182,6 @@
     <t>ID_Jogador</t>
   </si>
   <si>
-    <t>Data_Agenda</t>
-  </si>
-  <si>
     <t>Ponto</t>
   </si>
   <si>
@@ -197,7 +191,7 @@
     <t>ID_Pontos</t>
   </si>
   <si>
-    <t>Hora_Agenda</t>
+    <t>Precario</t>
   </si>
 </sst>
 </file>
@@ -229,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -252,15 +246,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,23 +962,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>34324</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>166885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>750604</xdr:colOff>
+      <xdr:rowOff>172995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>166885</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conexão reta 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E48F72-A7EF-4256-A886-F04AA64E92CE}"/>
+      <xdr:rowOff>172995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conexão reta 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9C91AD-9B6F-40E8-AA78-CD1E102B54AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +986,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2471351" y="5356723"/>
+          <a:off x="4725292" y="5362833"/>
           <a:ext cx="716280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1010,23 +1018,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conexão reta 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860AC91C-4C27-42F0-B54B-0B3B33C5E6F5}"/>
+        <xdr:cNvPr id="24" name="Conexão reta 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BFB779-8F7B-462F-86F4-6FE6B790A2BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1042,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3893820" y="4556760"/>
+          <a:off x="6019800" y="4556760"/>
           <a:ext cx="716280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1066,23 +1074,882 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conexão reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E685F43-2F8D-ADE6-B1E0-F136DECD0AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577340" y="922020"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conexão reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DB10B9-3992-4ADE-8643-3D880ADC84B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1005840" y="1097280"/>
+          <a:ext cx="579120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conexão reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FD1AFA-4062-4C58-A685-E92D49BA08C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1005840" y="541020"/>
+          <a:ext cx="0" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conexão reta 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDC35D-72EB-438C-81D3-FC6C4CEE6E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1005840" y="541020"/>
+          <a:ext cx="853440" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conexão reta unidirecional 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C6C93B-D5BC-2CDF-ACCA-E205142B1773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1844040" y="358140"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86596</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conexão reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CF91B5-0C9E-4A15-B7E3-00CB97091EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1297526" y="1472550"/>
+          <a:ext cx="0" cy="183117"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>767347</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conexão reta 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CE59E6-CD98-4106-8E11-A4039BCD8182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="767347" y="462681"/>
+          <a:ext cx="2273" cy="1178961"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conexão reta 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A829A25-1305-4FDE-BE42-7A733728B23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="457200"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conexão reta unidirecional 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB91EB69-B284-411A-92A1-BA629634B71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1447800" y="350520"/>
+          <a:ext cx="0" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conexão reta 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523299DA-FC89-4DF4-80BA-C344D4DAB647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2217420" y="3108960"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Conexão reta 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F08F1E1-FD50-465E-A71E-216B89923A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="3284220"/>
+          <a:ext cx="1158240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Conexão reta 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD390D17-42B4-410E-8452-D54465AF6E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="2727960"/>
+          <a:ext cx="7620" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Conexão reta 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB9A90A-437F-4667-9285-FF40A19009B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082040" y="2735580"/>
+          <a:ext cx="579120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Conexão reta unidirecional 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3F0E0E-5893-4BF5-A69F-2C0E74DA79E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1668780" y="2560320"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Conexão reta 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79406877-5F32-4664-8FB2-DBD6FBA6645C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="3665220"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>172995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conexão reta 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEA4D2D-9061-41F4-9284-DF09E8D4B8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2145476" y="4438341"/>
+          <a:ext cx="2854136" cy="17711"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>172995</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Conexão reta 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9C91AD-9B6F-40E8-AA78-CD1E102B54AC}"/>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Conexão reta 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2468AEAD-858B-46D1-BDC0-EC9D8FCADE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4998720" y="2750820"/>
+          <a:ext cx="7620" cy="1112520"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Conexão reta 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29ABD68B-0D78-4AFB-B9B2-00468FFE4CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,8 +1957,667 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4725292" y="5362833"/>
-          <a:ext cx="716280" cy="0"/>
+          <a:off x="1866900" y="2743200"/>
+          <a:ext cx="3139440" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conexão reta unidirecional 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12572E4-D846-4DA3-BC1E-FD01FD444D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1874520" y="2567940"/>
+          <a:ext cx="0" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Conexão reta 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1BEF43-713A-4980-9A65-DD050D790545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2979420" y="4213860"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Conexão reta 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B4BF35-A622-4AD2-9CBE-3C7A679655A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2964180" y="4381500"/>
+          <a:ext cx="5913120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Conexão reta 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F8B234-6625-4EA5-B845-4953DD5B9065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8869680" y="2705100"/>
+          <a:ext cx="7620" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933622</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Conexão reta 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B2F604-7E8C-45A3-B8F9-809A5B2F1B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141838" y="3295135"/>
+          <a:ext cx="6735599" cy="618"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>926482</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>926482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Conexão reta unidirecional 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4DA207-6337-4F55-AC3C-C4FDFDFFC41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2134698" y="3140882"/>
+          <a:ext cx="0" cy="154871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Conexão reta 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F2B601-DA6B-40AE-AB40-8FE741FE9A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="3108960"/>
+          <a:ext cx="0" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Conexão reta 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540A4B5E-4C27-4211-B566-64E300FD8C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="937260" y="3352800"/>
+          <a:ext cx="1889760" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>951023</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Conexão reta 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3FF797-AA10-4CF9-9CE0-C69D7BDF2209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="937260" y="1730744"/>
+          <a:ext cx="13763" cy="2190898"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>956694</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844698</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>75431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Conexão reta 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6267FA-DC0A-4833-BAE2-B472954F7B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="956694" y="1713023"/>
+          <a:ext cx="1098934" cy="10455"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844698</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>844698</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Conexão reta unidirecional 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D62F06-2418-4D58-99E2-EE4C1D69C072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2055628" y="1453116"/>
+          <a:ext cx="0" cy="259907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>767347</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88605</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Conexão reta 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14679916-87B4-4DE1-ACFA-D62127C28D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="767347" y="1648047"/>
+          <a:ext cx="532188" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>713564</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158307</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Conexão reta 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377241E3-FEF3-45A9-8A38-3B416E3A8E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2473843" y="2537637"/>
+          <a:ext cx="679302" cy="1182"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1122,1636 +2648,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conexão reta 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BFB779-8F7B-462F-86F4-6FE6B790A2BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6019800" y="4556760"/>
-          <a:ext cx="716280" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conexão reta 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E685F43-2F8D-ADE6-B1E0-F136DECD0AC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1577340" y="922020"/>
-          <a:ext cx="0" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conexão reta 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DB10B9-3992-4ADE-8643-3D880ADC84B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1005840" y="1097280"/>
-          <a:ext cx="579120" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Conexão reta 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FD1AFA-4062-4C58-A685-E92D49BA08C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1005840" y="541020"/>
-          <a:ext cx="0" cy="556260"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Conexão reta 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDC35D-72EB-438C-81D3-FC6C4CEE6E57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1005840" y="541020"/>
-          <a:ext cx="853440" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Conexão reta unidirecional 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C6C93B-D5BC-2CDF-ACCA-E205142B1773}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1844040" y="358140"/>
-          <a:ext cx="0" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>86596</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>86596</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Conexão reta 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CF91B5-0C9E-4A15-B7E3-00CB97091EB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1297526" y="1472550"/>
-          <a:ext cx="0" cy="183117"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>767347</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5347</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Conexão reta 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CE59E6-CD98-4106-8E11-A4039BCD8182}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="767347" y="462681"/>
-          <a:ext cx="2273" cy="1178961"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Conexão reta 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A829A25-1305-4FDE-BE42-7A733728B23D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="769620" y="457200"/>
-          <a:ext cx="685800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Conexão reta unidirecional 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB91EB69-B284-411A-92A1-BA629634B71C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1447800" y="350520"/>
-          <a:ext cx="0" cy="106680"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Conexão reta 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523299DA-FC89-4DF4-80BA-C344D4DAB647}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2217420" y="3108960"/>
-          <a:ext cx="0" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Conexão reta 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F08F1E1-FD50-465E-A71E-216B89923A5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1066800" y="3284220"/>
-          <a:ext cx="1158240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1074420</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Conexão reta 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD390D17-42B4-410E-8452-D54465AF6E19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1066800" y="2727960"/>
-          <a:ext cx="7620" cy="579120"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1082040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Conexão reta 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB9A90A-437F-4667-9285-FF40A19009B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1082040" y="2735580"/>
-          <a:ext cx="579120" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Conexão reta unidirecional 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3F0E0E-5893-4BF5-A69F-2C0E74DA79E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1668780" y="2560320"/>
-          <a:ext cx="0" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Conexão reta 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79406877-5F32-4664-8FB2-DBD6FBA6645C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2148840" y="3665220"/>
-          <a:ext cx="0" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Conexão reta 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEA4D2D-9061-41F4-9284-DF09E8D4B8F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2145476" y="4438341"/>
-          <a:ext cx="2854136" cy="17711"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Conexão reta 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2468AEAD-858B-46D1-BDC0-EC9D8FCADE90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4998720" y="2750820"/>
-          <a:ext cx="7620" cy="1112520"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Conexão reta 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29ABD68B-0D78-4AFB-B9B2-00468FFE4CBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1866900" y="2743200"/>
-          <a:ext cx="3139440" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Conexão reta unidirecional 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12572E4-D846-4DA3-BC1E-FD01FD444D6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1874520" y="2567940"/>
-          <a:ext cx="0" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Conexão reta 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1BEF43-713A-4980-9A65-DD050D790545}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2979420" y="4213860"/>
-          <a:ext cx="0" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Conexão reta 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B4BF35-A622-4AD2-9CBE-3C7A679655A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2964180" y="4381500"/>
-          <a:ext cx="5913120" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Conexão reta 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F8B234-6625-4EA5-B845-4953DD5B9065}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8869680" y="2705100"/>
-          <a:ext cx="7620" cy="1684020"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>933622</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Conexão reta 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B2F604-7E8C-45A3-B8F9-809A5B2F1B88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2141838" y="3295135"/>
-          <a:ext cx="6735599" cy="618"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>926482</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>926482</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Conexão reta unidirecional 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4DA207-6337-4F55-AC3C-C4FDFDFFC41B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2134698" y="3140882"/>
-          <a:ext cx="0" cy="154871"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Conexão reta 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F2B601-DA6B-40AE-AB40-8FE741FE9A8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2819400" y="3108960"/>
-          <a:ext cx="0" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="Conexão reta 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540A4B5E-4C27-4211-B566-64E300FD8C4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="937260" y="3352800"/>
-          <a:ext cx="1889760" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>82697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>951023</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Conexão reta 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3FF797-AA10-4CF9-9CE0-C69D7BDF2209}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="937260" y="1730744"/>
-          <a:ext cx="13763" cy="2190898"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>956694</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>64976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>844698</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>75431</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="Conexão reta 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6267FA-DC0A-4833-BAE2-B472954F7B98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="956694" y="1713023"/>
-          <a:ext cx="1098934" cy="10455"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>844698</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>844698</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>64976</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Conexão reta unidirecional 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D62F06-2418-4D58-99E2-EE4C1D69C072}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2055628" y="1453116"/>
-          <a:ext cx="0" cy="259907"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>767347</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88605</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Conexão reta 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14679916-87B4-4DE1-ACFA-D62127C28D0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="767347" y="1648047"/>
-          <a:ext cx="532188" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>34262</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>157125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>713564</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158307</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="Conexão reta 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377241E3-FEF3-45A9-8A38-3B416E3A8E3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2473843" y="2537637"/>
-          <a:ext cx="679302" cy="1182"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>422112</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -3311,61 +3207,61 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>576649</xdr:colOff>
       <xdr:row>29</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129268</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Conexão reta 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B65010-96BA-4B45-A984-6C89C748CDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5277917" y="5490482"/>
+          <a:ext cx="3981744" cy="8336"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4948</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>178130</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="142" name="Conexão reta 141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B65010-96BA-4B45-A984-6C89C748CDEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5279081" y="5546811"/>
-          <a:ext cx="3856137" cy="6508"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>597244</xdr:colOff>
+      <xdr:colOff>120993</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>82378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601974</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>125723</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>173442</xdr:rowOff>
     </xdr:to>
@@ -3382,8 +3278,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9116541" y="3233351"/>
-          <a:ext cx="4730" cy="2315280"/>
+          <a:off x="9251386" y="3205217"/>
+          <a:ext cx="4730" cy="2295421"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3411,11 +3307,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1132703</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>89587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608639</xdr:colOff>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>96108</xdr:rowOff>
     </xdr:to>
@@ -3432,8 +3328,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2340919" y="3240560"/>
-          <a:ext cx="6787017" cy="6521"/>
+          <a:off x="2343739" y="3211286"/>
+          <a:ext cx="6909118" cy="7661"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5009,512 +4905,6 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>549189</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>549754</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6864</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="211" name="Conexão reta 210">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42C00BD-2C8B-429F-B31E-E149857E7AA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2986216" y="5386780"/>
-          <a:ext cx="565" cy="180625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>989914</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>569784</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15102</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name="Conexão reta 214">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E802FF-E0C7-4F0A-87B3-97223F1071FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="989914" y="5567405"/>
-          <a:ext cx="2016897" cy="8238"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>996779</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>8237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1002270</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>6865</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="Conexão reta 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3B3E44-0DE2-4107-AA86-6A9DE1D1828F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="996779" y="5568778"/>
-          <a:ext cx="5491" cy="1666790"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>996779</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302054</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1372</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="220" name="Conexão reta 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9166130-900B-4C82-98EF-755C23205327}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="996779" y="7228703"/>
-          <a:ext cx="1742302" cy="1372"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>7963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="222" name="Conexão reta unidirecional 221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77B77EE-24AE-4649-8ADD-FAEDF1A5C419}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2734207" y="7051314"/>
-          <a:ext cx="0" cy="185351"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339742</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>16201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>343243</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>102973</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="223" name="Conexão reta unidirecional 222">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11524610-B78F-466D-952A-52F7CD54225B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4218391" y="7059552"/>
-          <a:ext cx="3501" cy="272124"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350108</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>351480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>124940</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="225" name="Conexão reta 224">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48F5C8B-7B99-4B2D-AE04-1D8A1929B1D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4228757" y="5388919"/>
-          <a:ext cx="1372" cy="111210"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>913027</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>124940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>372075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>130433</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="226" name="Conexão reta 225">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6829E75-F462-4617-B243-E613896A4B76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="913027" y="5500129"/>
-          <a:ext cx="3337697" cy="5493"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>906162</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>915773</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>96108</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="232" name="Conexão reta 231">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA88EF8A-752F-446B-B842-1217BCCF5A6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="906162" y="5487772"/>
-          <a:ext cx="9611" cy="1837039"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>895179</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>82378</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350108</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>91988</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name="Conexão reta 233">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059F30E-71A8-4A2D-BCC2-B0B6F67925D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="895179" y="7311081"/>
-          <a:ext cx="3333578" cy="9610"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6106,10 +5496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A204C0CF-ED1A-4116-922E-6F2DAC60886C}">
-  <dimension ref="A2:H41"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="112" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6128,22 +5518,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6154,16 +5544,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6171,19 +5561,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6194,13 +5584,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6208,164 +5598,167 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>17</v>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D38" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6376,6 +5769,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB7255EED27544BAACB01E9877A4242" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5315854b71b82a6083468dde30c62f45">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5c9103cda484c0f32ca8cdd70a32bc" ns3:_="">
     <xsd:import namespace="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
@@ -6569,24 +5979,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9B822-4068-4723-BB19-8251AC4C1464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a0fc5018-98b9-44e5-83f8-07cd9d7a0896" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF7AB82-CC0D-4E32-978F-5C00E977326C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43329A7-31AA-4039-A8CA-417E0F1E2C2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6602,28 +6019,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF7AB82-CC0D-4E32-978F-5C00E977326C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EA9B822-4068-4723-BB19-8251AC4C1464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a0fc5018-98b9-44e5-83f8-07cd9d7a0896"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>